--- a/doc/movie香港.xlsx
+++ b/doc/movie香港.xlsx
@@ -4,15 +4,452 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="刑事侦缉档案1-3" sheetId="2" r:id="rId2"/>
+    <sheet name="蓝嘉文" sheetId="3" r:id="rId3"/>
+    <sheet name="李忠义" sheetId="4" r:id="rId4"/>
+    <sheet name="高婕" sheetId="5" r:id="rId5"/>
+    <sheet name="张大勇" sheetId="6" r:id="rId6"/>
+    <sheet name="业务技能---刑侦" sheetId="7" r:id="rId7"/>
+    <sheet name="业务技能---财力" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="119">
+  <si>
+    <t>神勇飞虎霸王花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智勇三宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张大勇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高婕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级督察</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷肖凤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张日飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张小柔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张百川</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总督察</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Harvey，张大勇之弟（同父异母），另有一妹张小柔（同父同母）；自幼与父沟通不畅，遂逐渐养成独断独行之性格，凡事不愿向人解释。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毕业后一直周游各地，拍摄风土人情，自称其名字正为每日周游之意。外表给人以浪子之感，实则品性纯良，待人热心，对孩童及小动物极有爱心。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李忠义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁守礼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛德芬</t>
+  </si>
+  <si>
+    <t>警察,张大勇下属</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆国兴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警长，张大勇下属</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王维安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《传知周刊》老总,高婕上司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高婕姐姐，著名歌手，已隐退</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jessie(记者)，江宇轩前女友《传知周刊》记者,张大勇女友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孟志辉（孟波）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>珠宝大王,富商，张大勇的父亲，也是香港一名珠宝商大王，他和小女儿张小柔常年居住在美国。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝嘉文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个性鲜明、敢爱敢恨，热爱刑侦工作，头脑灵活。幼时父母双亡，仅和哥哥蓝嘉永相依为命。及年岁少长，嘉文留学英国，却因为一场不愉快的感情经历大病一场，随后与哥哥一同回到香港，加入了张大勇所在的刑侦组。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周丽荷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时装设计师，在美国有专属的牌子，闯出了时装界的一份天地。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警长，张大勇的老师，同事。备受大勇尊重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方昭荣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法医，品性纯厚，不爱说话，内向。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢枫</t>
+  </si>
+  <si>
+    <t>绯闻不断是因为掩饰自己的同性恋事实。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱慕高敏。影视剧明星，之前是同性恋者，后来爱慕高敏。品行端正。富有爱心。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝嘉永放火烧死了妹妹蓝嘉文变心的恋人罗保康和情敌凌雅丝，但众人都以为蓝嘉文就是凶手。后来蓝嘉文因为脑膜炎失去了记忆，忘记了这段往事。两年后，香港，凌雅丝的妹妹凌祖丝认出蓝嘉文，欲揭发她，被蓝嘉永失手杀死；凌祖丝的男友拿英国寄来的证据勒索蓝嘉永，亦被杀之灭口。蓝嘉文偶然间知道凶手是嘉永，替嘉永顶罪，最后蓝嘉永跳楼身亡。蓝嘉文设局杀大勇和高婕，但紧要关头恢复记忆，救出他俩，自己抽身出国而去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思想慎密，凡事爱抽丝剥茧，具有卓越的分析能力。处事认真，积极勤奋，任劳任怨，毅力惊人。在新界围村出生，是李家九代单传独生子，甚为祖父母溺爱，由于自少被家人过份保护，加上体弱多病，故常被人笑为潺仔及裙脚仔。但义胸怀大志，自少便憧景将来要投身警界，成为真正的男子汉，可惜每次都因为体质欠佳而被拒门外。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">出身于小康之家，自幼天资聪颖，年年考得奖学金，令母亦感安慰。大学毕业后，本欲效法父亲，投考警察工作，但却遭母亲强烈反对，无奈，只有退而求其次地加入杂志社工作。后发觉记者工作不但有挑战性，更充满了使命感，婕热爱工作，时常以揭发社会罪恶与不公平现象为己任。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色資料</t>
+  </si>
+  <si>
+    <t>性別:女</t>
+  </si>
+  <si>
+    <t>年齡:22</t>
+  </si>
+  <si>
+    <t>職業:CID探員</t>
+  </si>
+  <si>
+    <t>性格</t>
+  </si>
+  <si>
+    <t>樂觀自信，積極進取，聰穎誠懇，幹勁十足的出位女幹探。</t>
+  </si>
+  <si>
+    <t>好勝心強，永不認輸，凡事都要爭取到底。</t>
+  </si>
+  <si>
+    <t>背景</t>
+  </si>
+  <si>
+    <t>文本出身於富裕家庭，可惜父母因一次交通意外雙亡，文此時仍是嬰兒，自此就由年長她十歲的兄長藍嘉永將她提攜成長。由於兄長對她關懷備至，寵愛有加，令文仍然生活在幸福中。</t>
+  </si>
+  <si>
+    <t>文性格率性樂觀，熱情誠懇，積極進取，幾年前，由於一場大病，文在病塌中閱讀推理小說，因而愛上推理探案，病癒後，決定投身警界發展，由於文的積極努力，工作表現出色，很快已成為差館裡出位的女幹探。</t>
+  </si>
+  <si>
+    <t>遭遇</t>
+  </si>
+  <si>
+    <t>文因工作關係認識了督察張大勇，起初見勇吊兒郎當，自由散漫，對他並無好感，後來見勇屢破奇案，才被其聰明機智，果敢自我的性格所吸引，文雖然知道勇已有一親密女友高婕，但文深信公平競爭，遂決定向勇展開熱烈追求，適逢勇此時與婕感情亦出現問題，陷於冷戰局面，文遂乘虛而入，時常陪伴勇左右開解勸導，最後文終以誠意感動勇與自己在一起。</t>
+  </si>
+  <si>
+    <t>正當文陶醉在幸福的愛情裡，卻赫然發現勇與婕舊情復熾，文氣憤難平，力斥婕為第三者，並誓要勇與婕分手......與此同時，文竟發現勇與懷疑自己是殺人兇手---謀殺記者凌祖絲，並開始調查自己過往的身世......</t>
+  </si>
+  <si>
+    <t>文此時才知原來自己曾往外國留學，並與祖絲姐姐雅絲陷入一段三角戀中，最後雅絲與男友同被燒死，但文卻完全忘記這件事，在兄長解釋下，文始知自那次大火後，自己亦患上失憶症，對過去不愉快經歷已完全遺忘......文亦開始懷疑自己，究竟自己是否殺人兇手?當年是否放火殺人?今日是否又殺人滅口?!文因此痛苦不已，精神陷入崩潰邊緣......結果，文最後發現原來真正兇手竟是自己的兄長藍嘉永，為了維護自己而不斷殺人!文看著兄長被捕，既難過又無奈!一切煩惱皆因糾纏的感情開始，文最後決定退出勇與婕這三角關係，悄然而去......</t>
+  </si>
+  <si>
+    <t>性別:男</t>
+  </si>
+  <si>
+    <t>年齡:26</t>
+  </si>
+  <si>
+    <t>思想慎密，凡事愛抽絲剝繭，具有卓越的分析能力。</t>
+  </si>
+  <si>
+    <t>處事認真，積極勤奮，任勞任怨，毅力驚人。</t>
+  </si>
+  <si>
+    <t>義在新界圍村出生，是李家九代單傳獨生子，甚為祖父母溺愛，由於自少被家人過份保護，加上體弱多病，故常被人笑為潺仔及裙腳仔。但義胸懷大志，自少便憧憬將來要投身警界，成為真正的男子漢，可惜每次都因為體質欠佳而被拒門外。不過，有志者事竟成，在屢敗屢試下，義終成為CID探員。</t>
+  </si>
+  <si>
+    <t>義與張大勇督察拍擋，義憑著慎密的思想，與鍥而不捨的精神，助勇屢破奇案。義亦因此自信心大增。義因勇關係認識貪慕虛榮，視錢如命的容金枝，二人日夕相處，漸生情愫，後義更以真清感動枝下嫁。</t>
+  </si>
+  <si>
+    <t>婚後的義本來十分幸福，可是枝愛上了外國的生活方式，於是迫義回港辭職一起移民，義無可奈何下答應了枝，回港後，義始發現捨不得警察工作，在勇支持下，義決定復職。枝知悉此事後，知道無法勉強，但又捨不得其快活樂逍遙的遊埠生涯，於是協議自己聲音兩邊走。</t>
+  </si>
+  <si>
+    <t>於是，義又回復寡佬生涯，並索性搬去與勇同住。同時，義復職後，發現新同事藍嘉文進取搏命，實在是自己晉升沙展的強勁對手，故時常與文唇槍舌戰，各爭表現，互不相讓。</t>
+  </si>
+  <si>
+    <t>另一方面，義入住勇家不久，勇同父異母妹妹張小柔又從外國來港，暫住勇家。義與柔相處日久，發現柔嬌俏可愛，性格率真隨和，有時亦未免被柔吸引，無奈勇時常提醒他是有婦之夫身份，令他很快便恍然夢醒，不敢妄想!</t>
+  </si>
+  <si>
+    <t>其實，義心裡最愛仍然是自己的妻子枝，只是枝始終不諒解義其後枝更收錯風以為義在港與人同居，遂回港大發雌威，經過重重風波，始發覺是一場誤會......最終義亦與枝重修舊好，和好如初......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">李思龙 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年齡:23</t>
+  </si>
+  <si>
+    <t>職業:雜誌社記者</t>
+  </si>
+  <si>
+    <t>冷靜自信，對生活有目標和衝勁。</t>
+  </si>
+  <si>
+    <t>外冷內熱，感情處理比較含蓄。</t>
+  </si>
+  <si>
+    <t>為人比較自我中心，所以對人處事難免會較為執著，加上性格倔強，不易妥協，所以很多時會造成兩敗俱傷的局面。</t>
+  </si>
+  <si>
+    <t>好奇心重，幻想力豐富，凡事愛尋根究底，找出真相。</t>
+  </si>
+  <si>
+    <t>出身於小康之家，父親曾是當年顯赫一時的辣手神探，罪惡剋星，小時候的婕對父親因公殉職，致使母女頓成孤兒寡婦，傍徨無依。最後在母親含辛茹苦下，終於將婕姐妹撫養成人，婕自幼天資聰穎，年年考得獎學金，令母亦感安慰。</t>
+  </si>
+  <si>
+    <t>婕大學畢業後，本欲效法父親，投考警察工作，但卻遭母親強烈反對，婕無奈，只有退而求其次地加入雜誌社工作。後婕亦發覺記者工作不但有挑戰性，更充滿了使命感，婕熱愛工作，時常以揭發社會罪惡與不公平現象為己任。</t>
+  </si>
+  <si>
+    <t>婕因工作關係認識了督察張大勇，婕甚欣賞勇的聰明機智，有勇有謀，後婕終於與勇共墮愛河，成為情侶，可惜婕與勇都是硬頸之人，時因小事而執拗，加上母對勇素有偏見，時常從中作梗，令婕對勇誤會日深。</t>
+  </si>
+  <si>
+    <t>時雜誌社老闆王維安返港，安對婕早有情儀，返港後開始力追婕，婕不知怎婉拒安，而母又對安讚賞有加，令婕處境尷尬，可惜婕處境不但不獲勇諒解，二人更因此發生衝突，弄至此段感情幾乎陷於決裂。</t>
+  </si>
+  <si>
+    <t>直至婕看見勇和文一起時，心中那種難言的痛，才明白到幸福不是必然，是需要自己去全力爭取的，於是一反過往心高氣傲的作風，積極自動地盡全力挽救和勇的感清。與此同時，婕姐高敏又牽涉一宗謀殺案裡，後在勇協助下，終於找出真兇，而婕與勇亦因此又再愛火重燃。</t>
+  </si>
+  <si>
+    <t>正當婕與勇欲向文解釋一切時，文已知悉此事，並反應激烈，強辭奪理地罵婕是搶人家男友的第三者！婕無奈強忍，而同時間，婕開始懷疑文殺死自己同事凌祖絲。在婕追查下，更發現文數年前在外國留學時，曾與祖絲姐姐雅絲同陷入一段三角戀中，最後雅絲與男友同被燒死!婕開始懷疑，文當年是否因愛成恨而放火殺人?而今日文又是否因掩飾當年罪過而殺人滅口呢?!而眼前的局面又似是當年三角關係的歷史重演，婕只覺危機重重，似乎也難逃劫數......最後在勇全力追查下，終於查出真兇原來是文之兄長藍嘉永，為了維護妹妹而殺人，永終難逃法網，而文亦因此退出這糾纏的三角關係。經過重重風波後，婕最後仍與勇快樂地走在一起......</t>
+  </si>
+  <si>
+    <t>朱秀筠的丈夫，他是香港警察署一名巡逻员警，他在破屋揭穿詹百鸿是内奸被开枪打伤给送医，之后，他苏醒向雷肖凤总督察说出詹百鸿是警署内鬼。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翟永田</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年齡:27</t>
+  </si>
+  <si>
+    <t>職業:督察</t>
+  </si>
+  <si>
+    <t>頭腦冷靜，機智過人，心思細密，有勇有謀，可謂智勇雙全的出位幹探。</t>
+  </si>
+  <si>
+    <t>自我偏激，心直口快，不擅於處理人際關係，以致時常得罪別人。</t>
+  </si>
+  <si>
+    <t>時常口舌招尤，嘲弄別人，實則口硬心軟，最愛助人。</t>
+  </si>
+  <si>
+    <t>勇出身於單親家庭，母早年愛上有婦之夫的父親，有了勇後卻悄然離去，獨力將勇撫養成人。母死後，突然一天勇父回港相認，勇經幾番掙扎，終接受了這個父親。其後勇父返美繼續生活，而勇亦繼續工作的忙碌。</t>
+  </si>
+  <si>
+    <t>勇頭腦冷靜，機智過人，且富正義感，故中學畢業後，便投身警界，由於智勇雙全，屢破奇案，終升到督察。勇上司雷肖鳳貪功要面，對勇時加壓制，但勇笑罵由人，只管全心全意破案，令全也無可奈何。</t>
+  </si>
+  <si>
+    <t>勇拍擋李忠義自與容金枝結婚後，便與枝一直在外渡假，後枝迫義回港辭職，勇知義仍熱衷警務工作，鼓勵義繼續理想，並讓義暫住其家。與此同時，勇同父異母妹妹張小柔因與父鬧翻，離家出走來港找勇，勇無奈只好讓柔暫住，但勇見柔活潑可人，又常與義談笑甚歡，恐二人孤男寡女，共處一室，易生情愫。於是時常提醒義是有婦之夫身份，又告戒柔勿行差踏錯，更誠惶誠恐地看守著二人，以致弄出一連串的笑話。</t>
+  </si>
+  <si>
+    <t>另一方面，勇與女記者高婕的感情經過上集的風風雨雨後，終於穩定下來，進入拍拖階段。但因二人性格皆自我偏激，時常因瑣事而爭執，加上婕母娟對勇向來有偏見，時常從中作梗，導致勇與婕誤會日深。同時間，勇下屬藍嘉文對勇早生傾慕，於是借此機會，乘虛而入，時常陪伴勇左右，並安解勸慰，勇終被文真誠所感動，一顆心開始有點把持不定。</t>
+  </si>
+  <si>
+    <t>當勇與文在一起時，勇發現自己最愛仍然是婕，於是同文表白心態。但情根深種已不能自拔的文不肯接受現實，亦不允與勇分手，就在這三角關係糾纏不清之際，勇竟發現文被牽涉進一宗謀殺案裡-女記者凌祖絲離奇被殺，而勇追查下，竟發現文過去曾患失憶症，失憶前文曾在加拿大讀書與祖絲姐姐凌雅絲是同學，因為同時愛上同一個男同學而陷入一段三角戀中，最後一場大火，雅絲與男同學同被燒死，只有文幸免於難!究竟文當年有否因愛不遂而殺人放火?而今日又是否因為想掩飾過往罪行而殺人滅口?!.....經過重重波折，勇終於憑著他的聰明機智找出真兇。原來真兇是文的哥哥藍嘉永，為了維護妹妹而屢次殺人!勇最後將永繩之於法，而文經過此打擊後，亦決定悄然引退，退出這個糾纏的三角關係。而勇終亦與婕再譜愛曲！</t>
+  </si>
+  <si>
+    <t>业务分析能力强，头脑灵活，经常被人称为姜老辣。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市公安局西城分局里的刑警队长，他与香港警方联手破获香港商人王浩生被杀一案并成功逮捕两名嫌犯</t>
+  </si>
+  <si>
+    <t>叶子晴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后来父亲因贪腐案被捕，一夜之间，家壁似洗，平时的朋友都消失的无影无踪。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从此以后，自力更生，从事时装设计工作，后来在美国也成立了自己的品牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IVY，张大勇小学时的暗恋对象，父亲是高官，家庭环境优越，活脱脱的小公主。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为人民服务，热爱工作，头脑灵活。善良。正直。稳健。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱秀娟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高婕母亲，年轻时嫁给了警察，却因丈夫的牺牲而守活寡。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辛辛苦苦养大女儿们，不想让她们重蹈自己，没事儿就去上上香祈福。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心直口快，乐于助人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大勇，日飞的妹妹。还在上学的她天真聪明，活泼可爱。一人来到香港见同父异母的大哥。高敏的徒弟。热爱唱歌。性格倔强。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷肖凤丈夫,大学教授，爱老婆，怕老婆，是个好好先生。外表懦弱脓包，内心却很强大。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">傅金荣 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">卢冰冰 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">姜千松 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>她是方崇业的亲生女儿，也是香港警察局去里的一名女警。李忠义下属。卢冰冰的中学同学。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女警，李忠义下属，李思龙中学同学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警察，李忠义下属</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">朱秀筠 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高婕阿姨，朱秀娟姊妹。擅长做饭，美食家，在饮食界小有名气。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较鸡婆，胡搅蛮缠，但敢爱敢跟，最后选择了和最初的想好翟永田走在了一起。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头脑思维</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推理能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刑侦知识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>想象力，将线索连接在一起。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑推理，得出正确的犯案过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>犯罪学的知识面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视觉感知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现线索的能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -67,6 +504,238 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1068529</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="1200151"/>
+          <a:ext cx="1068528" cy="1447800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2049" name="Picture 1" descr="http://img.tvb.com/ii/11/19739/000001973880_1317098668.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4800600" y="171450"/>
+          <a:ext cx="1905000" cy="4762500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3073" name="Picture 1" descr="http://img.tvb.com/ii/11/19739/000001973872_1317098662.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3429000" y="171450"/>
+          <a:ext cx="1905000" cy="4762500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4097" name="Picture 1" descr="http://img.tvb.com/ii/11/19739/000001973876_1317098665.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7543800" y="1714500"/>
+          <a:ext cx="1905000" cy="4762500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5121" name="Picture 1" descr="http://img.tvb.com/ii/11/19739/000001973884_1317098671.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5486400" y="171450"/>
+          <a:ext cx="1905000" cy="4762500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -354,6 +1023,727 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B5:N37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="5" spans="2:14">
+      <c r="E5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="H10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="H14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" t="s">
+        <v>96</v>
+      </c>
+      <c r="N15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="N16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="5:14">
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="N17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="5:14">
+      <c r="M18" t="s">
+        <v>20</v>
+      </c>
+      <c r="N18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="5:14">
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="5:14">
+      <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="M20" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="5:14">
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" t="s">
+        <v>31</v>
+      </c>
+      <c r="M21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="5:14">
+      <c r="K23" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="5:14">
+      <c r="E24" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="5:14">
+      <c r="K25" t="s">
+        <v>33</v>
+      </c>
+      <c r="L25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="5:14">
+      <c r="E26" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="5:14">
+      <c r="E27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="5:14">
+      <c r="K28" t="s">
+        <v>91</v>
+      </c>
+      <c r="L28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="5:14">
+      <c r="E29" t="s">
+        <v>107</v>
+      </c>
+      <c r="F29" t="s">
+        <v>102</v>
+      </c>
+      <c r="L29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="5:14">
+      <c r="L30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="5:14">
+      <c r="E31" t="s">
+        <v>106</v>
+      </c>
+      <c r="F31" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="5:14">
+      <c r="K32" t="s">
+        <v>78</v>
+      </c>
+      <c r="L32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="5:12">
+      <c r="E33" t="s">
+        <v>107</v>
+      </c>
+      <c r="F33" t="s">
+        <v>104</v>
+      </c>
+      <c r="L33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="5:12">
+      <c r="K36" t="s">
+        <v>108</v>
+      </c>
+      <c r="L36" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="5:12">
+      <c r="L37" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A9:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -362,34 +1752,5 @@
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>